--- a/2022/iowa/overall_iowa.xlsx
+++ b/2022/iowa/overall_iowa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="467">
   <si>
     <t>STAT</t>
   </si>
@@ -545,13 +545,13 @@
     <t>92%</t>
   </si>
   <si>
-    <t>37%</t>
+    <t>36%</t>
   </si>
   <si>
     <t>84%</t>
   </si>
   <si>
-    <t>70%</t>
+    <t>71%</t>
   </si>
   <si>
     <t>82%</t>
@@ -578,7 +578,7 @@
     <t>48%</t>
   </si>
   <si>
-    <t>32%</t>
+    <t>31%</t>
   </si>
   <si>
     <t>97%</t>
@@ -593,7 +593,10 @@
     <t>60%</t>
   </si>
   <si>
-    <t>72%</t>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>73%</t>
   </si>
   <si>
     <t>41%</t>
@@ -605,19 +608,19 @@
     <t>96%</t>
   </si>
   <si>
-    <t>79%</t>
-  </si>
-  <si>
     <t>89%</t>
   </si>
   <si>
     <t>16%</t>
   </si>
   <si>
+    <t>61%</t>
+  </si>
+  <si>
     <t>62%</t>
   </si>
   <si>
-    <t>94%</t>
+    <t>100%</t>
   </si>
   <si>
     <t>Excellent</t>
@@ -1865,7 +1868,7 @@
         <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2" s="2">
         <v>766</v>
@@ -1918,7 +1921,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>237</v>
@@ -1971,7 +1974,7 @@
         <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>135</v>
@@ -2024,7 +2027,7 @@
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>97</v>
@@ -2077,7 +2080,7 @@
         <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>68</v>
@@ -2127,10 +2130,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G7">
         <v>71</v>
@@ -2183,7 +2186,7 @@
         <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G8">
         <v>46</v>
@@ -2233,10 +2236,10 @@
         <v>0.862</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>41</v>
@@ -2289,7 +2292,7 @@
         <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G10">
         <v>22</v>
@@ -2342,7 +2345,7 @@
         <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -2395,7 +2398,7 @@
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -2448,7 +2451,7 @@
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2607,7 +2610,7 @@
         <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G16" s="2">
         <v>177</v>
@@ -2660,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G17">
         <v>74</v>
@@ -2713,7 +2716,7 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -2766,7 +2769,7 @@
         <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19">
         <v>28</v>
@@ -2819,7 +2822,7 @@
         <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2872,7 +2875,7 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -2925,7 +2928,7 @@
         <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G22">
         <v>12</v>
@@ -2975,10 +2978,10 @@
         <v>0.769</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -3196,28 +3199,28 @@
         <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s">
         <v>60</v>
       </c>
       <c r="O27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P27" t="s">
         <v>36</v>
@@ -3249,22 +3252,22 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -3276,7 +3279,7 @@
         <v>60</v>
       </c>
       <c r="Q28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -3308,16 +3311,16 @@
         <v>162</v>
       </c>
       <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
         <v>245</v>
       </c>
-      <c r="K29" t="s">
-        <v>244</v>
-      </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -3349,7 +3352,7 @@
         <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G30" s="2">
         <v>589</v>
@@ -3402,7 +3405,7 @@
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G31">
         <v>163</v>
@@ -3455,7 +3458,7 @@
         <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G32">
         <v>116</v>
@@ -3508,7 +3511,7 @@
         <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G33">
         <v>69</v>
@@ -3561,7 +3564,7 @@
         <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34">
         <v>57</v>
@@ -3614,7 +3617,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G35">
         <v>55</v>
@@ -3667,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -3717,10 +3720,10 @@
         <v>0.885</v>
       </c>
       <c r="E37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G37">
         <v>35</v>
@@ -3770,10 +3773,10 @@
         <v>0.846</v>
       </c>
       <c r="E38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G38">
         <v>20</v>
@@ -3826,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -3879,7 +3882,7 @@
         <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G40">
         <v>16</v>
@@ -4091,7 +4094,7 @@
         <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G44" s="2">
         <v>533</v>
@@ -4144,7 +4147,7 @@
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G45">
         <v>156</v>
@@ -4197,7 +4200,7 @@
         <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G46">
         <v>106</v>
@@ -4250,7 +4253,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G47">
         <v>57</v>
@@ -4303,7 +4306,7 @@
         <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G48">
         <v>50</v>
@@ -4356,7 +4359,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G49">
         <v>45</v>
@@ -4406,10 +4409,10 @@
         <v>0.786</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G50">
         <v>31</v>
@@ -4462,7 +4465,7 @@
         <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G51">
         <v>29</v>
@@ -4515,7 +4518,7 @@
         <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G52">
         <v>19</v>
@@ -4568,7 +4571,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G53">
         <v>13</v>
@@ -4621,7 +4624,7 @@
         <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G54">
         <v>16</v>
@@ -4833,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G58" s="2">
         <v>56</v>
@@ -4886,7 +4889,7 @@
         <v>82</v>
       </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G59">
         <v>7</v>
@@ -4936,10 +4939,10 @@
         <v>1.7</v>
       </c>
       <c r="E60">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -4992,7 +4995,7 @@
         <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G61">
         <v>12</v>
@@ -5095,10 +5098,10 @@
         <v>1.3</v>
       </c>
       <c r="E63">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G63">
         <v>10</v>
@@ -5263,28 +5266,28 @@
         <v>60</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J66" t="s">
+        <v>246</v>
+      </c>
+      <c r="K66" t="s">
+        <v>252</v>
+      </c>
+      <c r="L66" t="s">
+        <v>252</v>
+      </c>
+      <c r="M66" t="s">
         <v>245</v>
-      </c>
-      <c r="K66" t="s">
-        <v>251</v>
-      </c>
-      <c r="L66" t="s">
-        <v>251</v>
-      </c>
-      <c r="M66" t="s">
-        <v>244</v>
       </c>
       <c r="N66" t="s">
         <v>60</v>
       </c>
       <c r="O66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P66" t="s">
         <v>36</v>
@@ -5319,7 +5322,7 @@
         <v>162</v>
       </c>
       <c r="I67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J67" t="s">
         <v>162</v>
@@ -5372,7 +5375,7 @@
         <v>162</v>
       </c>
       <c r="I68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J68" t="s">
         <v>162</v>
@@ -5428,16 +5431,16 @@
         <v>162</v>
       </c>
       <c r="J69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -5478,7 +5481,7 @@
         <v>162</v>
       </c>
       <c r="I70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J70" t="s">
         <v>162</v>
@@ -5531,7 +5534,7 @@
         <v>162</v>
       </c>
       <c r="I71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J71" t="s">
         <v>162</v>
@@ -5575,7 +5578,7 @@
         <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G72" s="2">
         <v>31</v>
@@ -5846,22 +5849,22 @@
         <v>61</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -5873,7 +5876,7 @@
         <v>61</v>
       </c>
       <c r="Q77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -6005,34 +6008,34 @@
         <v>61</v>
       </c>
       <c r="H80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N80" t="s">
         <v>60</v>
       </c>
       <c r="O80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P80" t="s">
         <v>60</v>
       </c>
       <c r="Q80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -6111,22 +6114,22 @@
         <v>61</v>
       </c>
       <c r="H82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -6138,7 +6141,7 @@
         <v>61</v>
       </c>
       <c r="Q82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:17" hidden="1">
@@ -6167,7 +6170,7 @@
         <v>162</v>
       </c>
       <c r="I83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J83" t="s">
         <v>162</v>
@@ -6223,16 +6226,16 @@
         <v>162</v>
       </c>
       <c r="J84" t="s">
+        <v>246</v>
+      </c>
+      <c r="K84" t="s">
         <v>245</v>
       </c>
-      <c r="K84" t="s">
-        <v>244</v>
-      </c>
       <c r="L84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -6270,28 +6273,28 @@
         <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J85" t="s">
+        <v>246</v>
+      </c>
+      <c r="K85" t="s">
         <v>245</v>
       </c>
-      <c r="K85" t="s">
-        <v>244</v>
-      </c>
       <c r="L85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N85" t="s">
         <v>60</v>
       </c>
       <c r="O85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P85" t="s">
         <v>36</v>
@@ -6338,7 +6341,7 @@
         <v>7</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N87" s="2">
         <v>0</v>
@@ -6350,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1">
@@ -6474,7 +6477,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -6489,7 +6492,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -6527,7 +6530,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6580,7 +6583,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -6595,7 +6598,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -6633,7 +6636,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -6648,7 +6651,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -6686,7 +6689,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -6710,7 +6713,7 @@
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
         <v>162</v>
@@ -6739,7 +6742,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -6858,7 +6861,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>22</v>
@@ -6873,7 +6876,7 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -6964,7 +6967,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -6979,7 +6982,7 @@
         <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -7017,7 +7020,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -7032,7 +7035,7 @@
         <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -7070,7 +7073,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -7094,7 +7097,7 @@
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
         <v>162</v>
@@ -7123,7 +7126,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -7144,22 +7147,22 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -7171,7 +7174,7 @@
         <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -7257,7 +7260,7 @@
         <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -7316,28 +7319,28 @@
         <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N3" t="s">
         <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -7454,7 +7457,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -7481,16 +7484,16 @@
         <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -7507,7 +7510,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -7531,7 +7534,7 @@
         <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
         <v>162</v>
@@ -7626,7 +7629,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -7679,7 +7682,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -7700,22 +7703,22 @@
         <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -7727,12 +7730,12 @@
         <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -7785,7 +7788,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -7862,7 +7865,7 @@
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
         <v>162</v>
@@ -7891,7 +7894,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -7918,16 +7921,16 @@
         <v>162</v>
       </c>
       <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
         <v>245</v>
       </c>
-      <c r="K7" t="s">
-        <v>244</v>
-      </c>
       <c r="L7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -8010,7 +8013,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -8090,16 +8093,16 @@
         <v>162</v>
       </c>
       <c r="J3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" t="s">
         <v>245</v>
       </c>
-      <c r="K3" t="s">
-        <v>244</v>
-      </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -8116,7 +8119,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -8169,7 +8172,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8222,7 +8225,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -8246,7 +8249,7 @@
         <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
         <v>162</v>
@@ -8275,7 +8278,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -8296,28 +8299,28 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
         <v>245</v>
       </c>
-      <c r="K7" t="s">
-        <v>244</v>
-      </c>
       <c r="L7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P7" t="s">
         <v>36</v>
@@ -8394,7 +8397,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>317</v>
@@ -8409,7 +8412,7 @@
         <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>237</v>
@@ -8447,7 +8450,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>97</v>
@@ -8462,7 +8465,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>74</v>
@@ -8500,7 +8503,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>220</v>
@@ -8515,7 +8518,7 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>163</v>
@@ -8553,7 +8556,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>207</v>
@@ -8568,7 +8571,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>156</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -8621,7 +8624,7 @@
         <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -8778,7 +8781,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>178</v>
@@ -8793,7 +8796,7 @@
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>135</v>
@@ -8831,7 +8834,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -8846,7 +8849,7 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -8884,7 +8887,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>155</v>
@@ -8899,7 +8902,7 @@
         <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>116</v>
@@ -8937,7 +8940,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>145</v>
@@ -8952,7 +8955,7 @@
         <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>106</v>
@@ -8990,7 +8993,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -9002,10 +9005,10 @@
         <v>1.7</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -9043,7 +9046,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -9162,7 +9165,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>131</v>
@@ -9177,7 +9180,7 @@
         <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>97</v>
@@ -9215,7 +9218,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -9230,7 +9233,7 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -9268,7 +9271,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -9283,7 +9286,7 @@
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>69</v>
@@ -9321,7 +9324,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>89</v>
@@ -9336,7 +9339,7 @@
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>57</v>
@@ -9374,7 +9377,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -9389,7 +9392,7 @@
         <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -9427,7 +9430,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -9546,7 +9549,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -9561,7 +9564,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>68</v>
@@ -9599,7 +9602,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -9614,7 +9617,7 @@
         <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -9652,7 +9655,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>73</v>
@@ -9667,7 +9670,7 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>57</v>
@@ -9705,7 +9708,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>66</v>
@@ -9720,7 +9723,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -9758,7 +9761,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -9811,7 +9814,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -9930,7 +9933,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>84</v>
@@ -9942,10 +9945,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2">
         <v>71</v>
@@ -9983,7 +9986,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -9998,7 +10001,7 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -10036,7 +10039,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>64</v>
@@ -10051,7 +10054,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G4">
         <v>55</v>
@@ -10089,7 +10092,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -10104,7 +10107,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G5">
         <v>45</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -10154,10 +10157,10 @@
         <v>1.3</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -10195,7 +10198,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -10216,22 +10219,22 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -10243,7 +10246,7 @@
         <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10314,7 +10317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>72</v>
@@ -10329,7 +10332,7 @@
         <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -10367,7 +10370,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -10382,7 +10385,7 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -10420,7 +10423,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>59</v>
@@ -10435,7 +10438,7 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G4">
         <v>34</v>
@@ -10473,7 +10476,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>56</v>
@@ -10485,10 +10488,10 @@
         <v>0.786</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5">
         <v>31</v>
@@ -10526,7 +10529,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -10579,7 +10582,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -10698,7 +10701,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>65</v>
@@ -10710,10 +10713,10 @@
         <v>0.862</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>41</v>
@@ -10751,7 +10754,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -10763,10 +10766,10 @@
         <v>0.769</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -10804,7 +10807,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -10816,10 +10819,10 @@
         <v>0.885</v>
       </c>
       <c r="E4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>35</v>
@@ -10857,7 +10860,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>44</v>
@@ -10872,7 +10875,7 @@
         <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>29</v>
@@ -10910,7 +10913,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -10963,7 +10966,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -11082,7 +11085,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>29</v>
@@ -11097,7 +11100,7 @@
         <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -11135,7 +11138,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -11188,7 +11191,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -11200,10 +11203,10 @@
         <v>0.846</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -11241,7 +11244,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -11256,7 +11259,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -11294,7 +11297,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -11315,28 +11318,28 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" t="s">
         <v>245</v>
-      </c>
-      <c r="K6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L6" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6" t="s">
-        <v>244</v>
       </c>
       <c r="N6" t="s">
         <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -11347,7 +11350,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -11368,34 +11371,34 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P7" t="s">
         <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
